--- a/data/hotels_by_city/Dallas/Dallas_shard_786.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_786.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,123 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r494695920-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>10263257</t>
+  </si>
+  <si>
+    <t>494695920</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome place 3 month stay </t>
+  </si>
+  <si>
+    <t>My company utilized this facility for me for 3 months. My time there was great! I enjoyed my stay. The staff are professional and kind. The facility is always clean. As a travel nurse there could not have been a better place to stay! I look forward to visiting again.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r487500153-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>487500153</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Needs Improvement!!</t>
+  </si>
+  <si>
+    <t>I stayed in the hotel from 19th - 31st MarchIts a hotel best suited for extended stay. Friendly staff. Christine at front desk was really amazing.. very helpful and charming.The major issue I faced was with House Keeping. They only have weekly house keeping which is really a concern as this hotel promotes long period stays. They have coffee only from 6am to 10am in morning and no breakfast. At the same rate other hotels provide basic facilities which I found lacking.The internet is really slow.Other than that the staff and location make the place worthwhile to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r476471291-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>476471291</t>
+  </si>
+  <si>
+    <t>04/17/2017</t>
+  </si>
+  <si>
+    <t>Great new place</t>
+  </si>
+  <si>
+    <t>Checked in following the advice from TripAdvisor. Clean rooms laundry facility but a little pricey for me. I stayed 2 week here, frond desk people were very nice. WiFi was decent but wold bog down after 8pm to 10pm, usable but slow around that time. I stayed on the top corner room nice view but i did find it hard to sleep with the rain water hitting the gutters right outside the window.  Fitness center was nice used it a few times.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r451294000-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>451294000</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Woodspring suites</t>
+  </si>
+  <si>
+    <t>Im actually here now and its a nice place the room just a little smaller than i expected and the wood floors are not the shiniest but cleanliness is where its at and i can do without those other 2 for that fact right there. Its very quiet here and people are not all in your business...</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r449756649-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>449756649</t>
+  </si>
+  <si>
+    <t>01/05/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay Resident</t>
+  </si>
+  <si>
+    <t>I have been staying here at Woodspring Suites since the 1st of September 2016, in the words of Dorothy in the 'Wizard of Oz,' there's no place like home.  My entire stay have been nothing less than pleasant. My encounters with each and every single member of the staff have always when been respectful and has never failed leaving me feeling appreciated as a guest.  The only bad thing I can think of at this point is the day I have to leave... it will be the saddest day of my life.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r438191943-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>438191943</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Very Good Extended Stay Hotel</t>
+  </si>
+  <si>
+    <t>Roomy, spacious and clean. Floor is made of wood and I think it is much better than carpet. There's a kitchenette in every room; but, it doesn't include pots, pans or other cooking/kitchen utensils. The refrigerator is a regular size refrigerator and it has ice cube trays. Bed height is kind of higher than most hotels I've been to; but, it sleeps really good and you can smell the cleanliness of the sheets. The space on the bathroom vanity is limited; but, if you need more space to use for toiletries, the kitchenette across the bathroom has plenty of room. Cleaning schedule is done once a week only; but, you can request for new towels anytime you want your used towels replaced. Internet connection has 2 options (premium, with prices for a day or a week and basic for free); I was able to work from our room with the basic wifi connection with no problems at all. This is our first time to stay in an extended hotel and we were impressed. We wouldn't hesitate coming back if we need to stay for a few days in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Roomy, spacious and clean. Floor is made of wood and I think it is much better than carpet. There's a kitchenette in every room; but, it doesn't include pots, pans or other cooking/kitchen utensils. The refrigerator is a regular size refrigerator and it has ice cube trays. Bed height is kind of higher than most hotels I've been to; but, it sleeps really good and you can smell the cleanliness of the sheets. The space on the bathroom vanity is limited; but, if you need more space to use for toiletries, the kitchenette across the bathroom has plenty of room. Cleaning schedule is done once a week only; but, you can request for new towels anytime you want your used towels replaced. Internet connection has 2 options (premium, with prices for a day or a week and basic for free); I was able to work from our room with the basic wifi connection with no problems at all. This is our first time to stay in an extended hotel and we were impressed. We wouldn't hesitate coming back if we need to stay for a few days in the area. More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +765,362 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_786.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_786.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>DG_travelgirl</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Amit_Rai</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r487500153-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>I stayed in the hotel from 19th - 31st MarchIts a hotel best suited for extended stay. Friendly staff. Christine at front desk was really amazing.. very helpful and charming.The major issue I faced was with House Keeping. They only have weekly house keeping which is really a concern as this hotel promotes long period stays. They have coffee only from 6am to 10am in morning and no breakfast. At the same rate other hotels provide basic facilities which I found lacking.The internet is really slow.Other than that the staff and location make the place worthwhile to stay.</t>
   </si>
   <si>
+    <t>Dave-N-Rhonda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r476471291-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -210,6 +219,9 @@
     <t>Checked in following the advice from TripAdvisor. Clean rooms laundry facility but a little pricey for me. I stayed 2 week here, frond desk people were very nice. WiFi was decent but wold bog down after 8pm to 10pm, usable but slow around that time. I stayed on the top corner room nice view but i did find it hard to sleep with the rain water hitting the gutters right outside the window.  Fitness center was nice used it a few times.</t>
   </si>
   <si>
+    <t>Square B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r451294000-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Reginia D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r449756649-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -247,6 +262,9 @@
   </si>
   <si>
     <t>September 2016</t>
+  </si>
+  <si>
+    <t>l3lessed</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r438191943-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
@@ -769,43 +787,47 @@
       <c r="A2" t="n">
         <v>60718</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>182594</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -819,50 +841,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60718</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>182595</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -882,50 +908,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60718</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>182596</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -945,50 +975,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60718</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>182597</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1002,50 +1036,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60718</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>182598</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1065,41 +1103,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60718</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>182599</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
@@ -1118,7 +1160,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_786.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_786.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>DG_travelgirl</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/29/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r566493583-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>10263257</t>
+  </si>
+  <si>
+    <t>566493583</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Quiet, clean, efficient</t>
+  </si>
+  <si>
+    <t>This was a nice place to stay that was clean and quiet and was definitely affordable. You can have food delivered or do like I did and pick up something on the way back since there aren't a lot of restaurants within sidewalk walking distance. Staff was very friendly. Unlike others I only stayed one night, but it was nice having the extra room and since there was a kitchenette in the room, would be handy for longer stays.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r554993559-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>554993559</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>Clean,convenient and friendly staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and I along with his service dog stayed here for 9 nights so he could attend a brain rehab center about 2 miles away. From the time we checked in until we left the staff was super nice and helpful. Every day they greeted us with a smile and helped with anything we needed. They took the time to get to know their extended-stay guest. I apologize for not getting everyones name but I just wanted to say thank you for being so kind. </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r494695920-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
-    <t>56032</t>
-  </si>
-  <si>
-    <t>10263257</t>
-  </si>
-  <si>
     <t>494695920</t>
   </si>
   <si>
@@ -180,12 +219,6 @@
     <t>March 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Amit_Rai</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r487500153-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -201,9 +234,6 @@
     <t>I stayed in the hotel from 19th - 31st MarchIts a hotel best suited for extended stay. Friendly staff. Christine at front desk was really amazing.. very helpful and charming.The major issue I faced was with House Keeping. They only have weekly house keeping which is really a concern as this hotel promotes long period stays. They have coffee only from 6am to 10am in morning and no breakfast. At the same rate other hotels provide basic facilities which I found lacking.The internet is really slow.Other than that the staff and location make the place worthwhile to stay.</t>
   </si>
   <si>
-    <t>Dave-N-Rhonda</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r476471291-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -219,7 +249,54 @@
     <t>Checked in following the advice from TripAdvisor. Clean rooms laundry facility but a little pricey for me. I stayed 2 week here, frond desk people were very nice. WiFi was decent but wold bog down after 8pm to 10pm, usable but slow around that time. I stayed on the top corner room nice view but i did find it hard to sleep with the rain water hitting the gutters right outside the window.  Fitness center was nice used it a few times.</t>
   </si>
   <si>
-    <t>Square B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r457126888-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>457126888</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Amazing customer service</t>
+  </si>
+  <si>
+    <t>All of the front desk employees were amazing. Rebecca and her counterparts made my stay from Detroit very enjoyable. The rooms are amazingly clean and the housekeeping really does a good job weekly replenishing your toiletries. I was here for 5 weeks for work and they made this place feel like my home away from home. I would highly recommend anyone to stay here if they are in the area for an extended period of time!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r454469683-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>454469683</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Nice place, needs a little polishing to be great</t>
+  </si>
+  <si>
+    <t>I have been staying here 3 weeks. I struggled on 3 or 4 stars. I ended up giving it 3 because a few things kept me from having a truly great stay.
+Pros: 1) Great people, friendly staff.
+2) With the building being less than a year old everything is pretty nice still. 
+3) It is a nice location in the metroplex to get around and it is safe location.
+4) The wooden floors are nice due to not having crusty carpet to walk on but there's a caveat to this, I will mention below. 
+Cons: 1) They clean once a week, but don't "really" clean. They change your towels and linens, and wipe up the sink. But in my 3.5 weeks my floor was not swept once, I know because of the crumbs by the desk.
+2) The floors are thinner than the walls. Meaning you never hear anybody beside you, but the person above? You hear every step, every slide of their chair, every close of their front door. The manager showed up one night telling me there was a complaint that I was rearranging the furniture in my room, and it was just the noise from sliding my desk chair on the wooden floor (caveat mentioned above). 
+3) I feel a chair mat or area rug in the desk area would help immensely. Because I understood the complaint against me because I heard the chair above me...I have been staying here 3 weeks. I struggled on 3 or 4 stars. I ended up giving it 3 because a few things kept me from having a truly great stay.Pros: 1) Great people, friendly staff.2) With the building being less than a year old everything is pretty nice still. 3) It is a nice location in the metroplex to get around and it is safe location.4) The wooden floors are nice due to not having crusty carpet to walk on but there's a caveat to this, I will mention below. Cons: 1) They clean once a week, but don't "really" clean. They change your towels and linens, and wipe up the sink. But in my 3.5 weeks my floor was not swept once, I know because of the crumbs by the desk.2) The floors are thinner than the walls. Meaning you never hear anybody beside you, but the person above? You hear every step, every slide of their chair, every close of their front door. The manager showed up one night telling me there was a complaint that I was rearranging the furniture in my room, and it was just the noise from sliding my desk chair on the wooden floor (caveat mentioned above). 3) I feel a chair mat or area rug in the desk area would help immensely. Because I understood the complaint against me because I heard the chair above me like it was in my room. I was very careful after that not to slide it but it was a hassle. 4) They disable the HDMI's on the TV. I understand they want you to use they services but in an extended stay place being able to hook up a game console could help pass the time when away from friends and family. 5) The "breakfast" area is sporadic. Some days they put out breakfast bars, somedays they don't. Some days there is coffee at 6, sometimes not until well after 6:30. This needs a little better planning for those of us on a fixed schedule to get to work every day. 6) It is no smoking but people often smoke right outside the doors and you have to walk through it. Sounds whiny I know but some of us are allergic and that is a bad deal. 7) The basic internet is slow. Not dial up slow, but slower than other hotel wifi have experienced. In closing it is a nice place that with a little work could be the best extended stay hotel in the DFW metroplex.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been staying here 3 weeks. I struggled on 3 or 4 stars. I ended up giving it 3 because a few things kept me from having a truly great stay.
+Pros: 1) Great people, friendly staff.
+2) With the building being less than a year old everything is pretty nice still. 
+3) It is a nice location in the metroplex to get around and it is safe location.
+4) The wooden floors are nice due to not having crusty carpet to walk on but there's a caveat to this, I will mention below. 
+Cons: 1) They clean once a week, but don't "really" clean. They change your towels and linens, and wipe up the sink. But in my 3.5 weeks my floor was not swept once, I know because of the crumbs by the desk.
+2) The floors are thinner than the walls. Meaning you never hear anybody beside you, but the person above? You hear every step, every slide of their chair, every close of their front door. The manager showed up one night telling me there was a complaint that I was rearranging the furniture in my room, and it was just the noise from sliding my desk chair on the wooden floor (caveat mentioned above). 
+3) I feel a chair mat or area rug in the desk area would help immensely. Because I understood the complaint against me because I heard the chair above me...I have been staying here 3 weeks. I struggled on 3 or 4 stars. I ended up giving it 3 because a few things kept me from having a truly great stay.Pros: 1) Great people, friendly staff.2) With the building being less than a year old everything is pretty nice still. 3) It is a nice location in the metroplex to get around and it is safe location.4) The wooden floors are nice due to not having crusty carpet to walk on but there's a caveat to this, I will mention below. Cons: 1) They clean once a week, but don't "really" clean. They change your towels and linens, and wipe up the sink. But in my 3.5 weeks my floor was not swept once, I know because of the crumbs by the desk.2) The floors are thinner than the walls. Meaning you never hear anybody beside you, but the person above? You hear every step, every slide of their chair, every close of their front door. The manager showed up one night telling me there was a complaint that I was rearranging the furniture in my room, and it was just the noise from sliding my desk chair on the wooden floor (caveat mentioned above). 3) I feel a chair mat or area rug in the desk area would help immensely. Because I understood the complaint against me because I heard the chair above me like it was in my room. I was very careful after that not to slide it but it was a hassle. 4) They disable the HDMI's on the TV. I understand they want you to use they services but in an extended stay place being able to hook up a game console could help pass the time when away from friends and family. 5) The "breakfast" area is sporadic. Some days they put out breakfast bars, somedays they don't. Some days there is coffee at 6, sometimes not until well after 6:30. This needs a little better planning for those of us on a fixed schedule to get to work every day. 6) It is no smoking but people often smoke right outside the doors and you have to walk through it. Sounds whiny I know but some of us are allergic and that is a bad deal. 7) The basic internet is slow. Not dial up slow, but slower than other hotel wifi have experienced. In closing it is a nice place that with a little work could be the best extended stay hotel in the DFW metroplex.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r451294000-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
@@ -237,15 +314,9 @@
     <t>Im actually here now and its a nice place the room just a little smaller than i expected and the wood floors are not the shiniest but cleanliness is where its at and i can do without those other 2 for that fact right there. Its very quiet here and people are not all in your business...</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Reginia D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r449756649-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -264,9 +335,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>l3lessed</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r438191943-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
   </si>
   <si>
@@ -283,6 +351,45 @@
   </si>
   <si>
     <t>Roomy, spacious and clean. Floor is made of wood and I think it is much better than carpet. There's a kitchenette in every room; but, it doesn't include pots, pans or other cooking/kitchen utensils. The refrigerator is a regular size refrigerator and it has ice cube trays. Bed height is kind of higher than most hotels I've been to; but, it sleeps really good and you can smell the cleanliness of the sheets. The space on the bathroom vanity is limited; but, if you need more space to use for toiletries, the kitchenette across the bathroom has plenty of room. Cleaning schedule is done once a week only; but, you can request for new towels anytime you want your used towels replaced. Internet connection has 2 options (premium, with prices for a day or a week and basic for free); I was able to work from our room with the basic wifi connection with no problems at all. This is our first time to stay in an extended hotel and we were impressed. We wouldn't hesitate coming back if we need to stay for a few days in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r424752151-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>424752151</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Top notch Extended Stay!</t>
+  </si>
+  <si>
+    <t>Checked in just a few days ago, still impressed!Becca was fantastic helping me out with a special request I had at check in. The hotel and everything within are brand new, and a higher level of quality than your usual extended stay hotel experience. The decor is nice, with accent colors in the halls and rooms. Wood laminate floors instead of nasty high traffic carpet in the rooms is nice!Very comfortable bed, and nice furniture, too!Lots of channels on the satellite tv, but HBO is missed. Internet speed is disappointing, both for free basic and paid premium. Lots of parking, and a very convenient location!Overall, well worth 5 stars and a great value for an extended stay hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Checked in just a few days ago, still impressed!Becca was fantastic helping me out with a special request I had at check in. The hotel and everything within are brand new, and a higher level of quality than your usual extended stay hotel experience. The decor is nice, with accent colors in the halls and rooms. Wood laminate floors instead of nasty high traffic carpet in the rooms is nice!Very comfortable bed, and nice furniture, too!Lots of channels on the satellite tv, but HBO is missed. Internet speed is disappointing, both for free basic and paid premium. Lots of parking, and a very convenient location!Overall, well worth 5 stars and a great value for an extended stay hotel! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d10263257-r413371995-WoodSpring_Suites_Signature_Las_Colinas-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>413371995</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Great Extended Stay</t>
+  </si>
+  <si>
+    <t>Excellent stay! Nice, efficient new property in a great location in Las Colinas.  Close proximity to nice commercial entities (restaurants, shopping, etc) as well as the the major freeways (635, Bush, 114, Dallas Tollway, and 35). The staff was very, very accomodating and courteous! Rebecca, Roshan, and Max treated me as though I were royalty!My only suggestion is for the hotel to offer movie channels with its satellite service. Other than that small issue my stay was great!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
   </si>
 </sst>
 </file>
@@ -787,312 +894,290 @@
       <c r="A2" t="n">
         <v>60718</v>
       </c>
-      <c r="B2" t="n">
-        <v>182594</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60718</v>
       </c>
-      <c r="B3" t="n">
-        <v>182595</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60718</v>
       </c>
-      <c r="B4" t="n">
-        <v>182596</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>53</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60718</v>
       </c>
-      <c r="B5" t="n">
-        <v>182597</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60718</v>
       </c>
-      <c r="B6" t="n">
-        <v>182598</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L6" t="s">
-        <v>80</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="n">
         <v>5</v>
       </c>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -1103,64 +1188,418 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60718</v>
       </c>
-      <c r="B7" t="n">
-        <v>182599</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60718</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>119</v>
+      </c>
+      <c r="O13" t="s">
+        <v>94</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
